--- a/data/trans_orig/IPAQ_MET-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C0FEFF-C910-4C73-A8F5-8A1233503847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C16552E1-8E61-4D19-BF22-C6291314A759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{87F8BF33-22DD-41B2-91AC-C7049B16C1A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F6DA106-A6E9-4941-AE70-B553423274AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="401">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida en edición</t>
@@ -113,7 +113,7 @@
     <t>Nivel bajo o inactivo</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -134,7 +134,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -149,7 +149,7 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -239,7 +239,7 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -254,958 +254,970 @@
     <t>20,48%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>54,86%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
   </si>
   <si>
     <t>52,47%</t>
   </si>
   <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
   </si>
   <si>
     <t>53,68%</t>
   </si>
   <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
     <t>28,31%</t>
   </si>
   <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
     <t>47,04%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
   </si>
   <si>
     <t>27,36%</t>
@@ -1641,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4B290D-2A33-4A7F-980A-A12ECF3BE2A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D000AD-284D-42C2-A57A-BC38BCDE3035}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3047,7 +3059,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>11</v>
@@ -3251,7 +3263,7 @@
         <v>3214</v>
       </c>
       <c r="D33" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -3316,7 +3328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19AAD9A-19CC-4969-B6D1-C8E44891656C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB78BC-E984-4B2B-BBD9-58749D7D2C96}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4991,7 +5003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2022AA0F-3229-4DF3-B7A8-7E442DF1B503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B22BF-8B2D-46EA-B895-CC6AAE562DA0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5683,10 +5695,10 @@
         <v>126</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -5695,13 +5707,13 @@
         <v>47586</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -5710,13 +5722,13 @@
         <v>170399</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5743,13 @@
         <v>504976</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>441</v>
@@ -5746,13 +5758,13 @@
         <v>468243</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>906</v>
@@ -5761,13 +5773,13 @@
         <v>973220</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5794,13 @@
         <v>394641</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>489</v>
@@ -5797,13 +5809,13 @@
         <v>527084</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>864</v>
@@ -5812,13 +5824,13 @@
         <v>921725</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,22 +5919,22 @@
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5949,13 @@
         <v>113872</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5952,13 +5964,13 @@
         <v>42100</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>146</v>
@@ -5967,13 +5979,13 @@
         <v>155972</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +6000,13 @@
         <v>391020</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H21" s="7">
         <v>388</v>
@@ -6003,13 +6015,13 @@
         <v>408573</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M21" s="7">
         <v>744</v>
@@ -6018,13 +6030,13 @@
         <v>799593</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6051,13 @@
         <v>254661</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H22" s="7">
         <v>307</v>
@@ -6054,13 +6066,13 @@
         <v>334338</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M22" s="7">
         <v>542</v>
@@ -6069,13 +6081,13 @@
         <v>588998</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6206,13 @@
         <v>146173</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -6209,13 +6221,13 @@
         <v>74690</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M25" s="7">
         <v>213</v>
@@ -6224,13 +6236,13 @@
         <v>220862</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6257,13 @@
         <v>469462</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H26" s="7">
         <v>487</v>
@@ -6260,13 +6272,13 @@
         <v>520980</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>952</v>
@@ -6275,13 +6287,13 @@
         <v>990441</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6308,13 @@
         <v>321933</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H27" s="7">
         <v>403</v>
@@ -6666,7 +6678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1B3F3B-47D4-41DB-8C9A-904521213A68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9E5FAA-2E92-44FF-966E-0E4A45C6C71D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6859,10 +6871,10 @@
         <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>71</v>
@@ -6871,13 +6883,13 @@
         <v>44075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6904,13 @@
         <v>39430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>108</v>
@@ -6907,13 +6919,13 @@
         <v>63518</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>151</v>
@@ -6922,13 +6934,13 @@
         <v>102949</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6955,13 @@
         <v>35052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -6958,13 +6970,13 @@
         <v>50640</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -6973,13 +6985,13 @@
         <v>85692</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,7 +7065,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7083,7 +7095,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7110,13 @@
         <v>139891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>194</v>
@@ -7113,13 +7125,13 @@
         <v>114204</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>337</v>
@@ -7128,13 +7140,13 @@
         <v>254095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7161,13 @@
         <v>246070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>433</v>
@@ -7164,13 +7176,13 @@
         <v>270572</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>720</v>
@@ -7179,13 +7191,13 @@
         <v>516642</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7212,13 @@
         <v>163862</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>371</v>
@@ -7215,13 +7227,13 @@
         <v>235191</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>553</v>
@@ -7230,13 +7242,13 @@
         <v>399053</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,7 +7337,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7340,7 +7352,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7367,13 @@
         <v>244885</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H15" s="7">
         <v>269</v>
@@ -7370,13 +7382,13 @@
         <v>173828</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M15" s="7">
         <v>494</v>
@@ -7385,13 +7397,13 @@
         <v>418713</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7418,13 @@
         <v>500859</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>715</v>
@@ -7421,13 +7433,13 @@
         <v>518459</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>1159</v>
@@ -7436,13 +7448,13 @@
         <v>1019318</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7469,13 @@
         <v>293504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>533</v>
@@ -7472,13 +7484,13 @@
         <v>367793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>828</v>
@@ -7487,13 +7499,13 @@
         <v>661296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7624,13 @@
         <v>208052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -7627,13 +7639,13 @@
         <v>271064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>408</v>
@@ -7642,13 +7654,13 @@
         <v>479116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,13 +7675,13 @@
         <v>301319</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H21" s="7">
         <v>403</v>
@@ -7678,13 +7690,13 @@
         <v>287717</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M21" s="7">
         <v>683</v>
@@ -7693,13 +7705,13 @@
         <v>589036</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,13 +7726,13 @@
         <v>219401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>423</v>
@@ -7729,13 +7741,13 @@
         <v>315590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>632</v>
@@ -7744,13 +7756,13 @@
         <v>534990</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,7 +7851,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7854,7 +7866,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,13 +7881,13 @@
         <v>270247</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>243</v>
@@ -7884,13 +7896,13 @@
         <v>177324</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>508</v>
@@ -7899,13 +7911,13 @@
         <v>447571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,13 +7932,13 @@
         <v>480810</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>771</v>
@@ -7935,13 +7947,13 @@
         <v>555475</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>1277</v>
@@ -7950,13 +7962,13 @@
         <v>1036285</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,13 +7983,13 @@
         <v>214346</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H27" s="7">
         <v>548</v>
@@ -7986,13 +7998,13 @@
         <v>417633</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M27" s="7">
         <v>783</v>
@@ -8001,13 +8013,13 @@
         <v>631979</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,7 +8108,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8111,7 +8123,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8138,13 @@
         <v>890575</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H30" s="7">
         <v>965</v>
@@ -8141,13 +8153,13 @@
         <v>752995</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>92</v>
+        <v>381</v>
       </c>
       <c r="M30" s="7">
         <v>1818</v>
@@ -8156,13 +8168,13 @@
         <v>1643570</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,13 +8189,13 @@
         <v>1568488</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>385</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H31" s="7">
         <v>2430</v>
@@ -8192,10 +8204,10 @@
         <v>1695740</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>229</v>
@@ -8207,13 +8219,13 @@
         <v>3264228</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>93</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8240,13 @@
         <v>926165</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H32" s="7">
         <v>1972</v>
@@ -8243,13 +8255,13 @@
         <v>1386845</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M32" s="7">
         <v>2935</v>
@@ -8258,13 +8270,13 @@
         <v>2313010</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IPAQ_MET-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C16552E1-8E61-4D19-BF22-C6291314A759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A9012C-9C87-48EB-9D65-0D29B55D8F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F6DA106-A6E9-4941-AE70-B553423274AA}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{62DCA069-EF85-4136-BDF2-5DB13DE724A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="404">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -254,82 +254,82 @@
     <t>20,48%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>54,86%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
   </si>
   <si>
     <t>52,47%</t>
   </si>
   <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
   </si>
   <si>
     <t>53,68%</t>
   </si>
   <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -341,742 +341,751 @@
     <t>12,51%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>49,62%</t>
   </si>
   <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
   </si>
   <si>
     <t>44,96%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>47,29%</t>
   </si>
   <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
     <t>44,17%</t>
   </si>
   <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
   </si>
   <si>
     <t>36,09%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
   </si>
   <si>
     <t>33,37%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -1085,46 +1094,46 @@
     <t>27,99%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>21,15%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>49,8%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
   </si>
   <si>
     <t>48,98%</t>
@@ -1133,7 +1142,7 @@
     <t>46,62%</t>
   </si>
   <si>
-    <t>51,41%</t>
+    <t>51,08%</t>
   </si>
   <si>
     <t>22,2%</t>
@@ -1142,25 +1151,25 @@
     <t>19,65%</t>
   </si>
   <si>
-    <t>25,18%</t>
+    <t>25,25%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1172,19 +1181,19 @@
     <t>26,31%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>22,76%</t>
@@ -1193,55 +1202,55 @@
     <t>21,11%</t>
   </si>
   <si>
-    <t>27,62%</t>
+    <t>26,88%</t>
   </si>
   <si>
     <t>46,33%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>36,16%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>30,15%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D000AD-284D-42C2-A57A-BC38BCDE3035}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD5A035-34BC-4109-B3F1-93A3CEA1B035}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3059,7 +3068,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>11</v>
@@ -3089,7 +3098,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>11</v>
@@ -3263,7 +3272,7 @@
         <v>3214</v>
       </c>
       <c r="D33" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -3293,7 +3302,7 @@
         <v>6511</v>
       </c>
       <c r="N33" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
@@ -3328,7 +3337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB78BC-E984-4B2B-BBD9-58749D7D2C96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F725323-694D-41A2-8ADD-9DA9957AC45A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5003,7 +5012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B22BF-8B2D-46EA-B895-CC6AAE562DA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7DF523-8353-41AB-8AE7-BD62F871C1CE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5695,10 +5704,10 @@
         <v>126</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -5707,13 +5716,13 @@
         <v>47586</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -5722,13 +5731,13 @@
         <v>170399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5752,13 @@
         <v>504976</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>441</v>
@@ -5758,13 +5767,13 @@
         <v>468243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>906</v>
@@ -5773,13 +5782,13 @@
         <v>973220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5803,13 @@
         <v>394641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>489</v>
@@ -5809,13 +5818,13 @@
         <v>527084</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>864</v>
@@ -5824,13 +5833,13 @@
         <v>921725</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5934,7 +5943,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5958,13 @@
         <v>113872</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5964,13 +5973,13 @@
         <v>42100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>146</v>
@@ -5979,13 +5988,13 @@
         <v>155972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6009,13 @@
         <v>391020</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H21" s="7">
         <v>388</v>
@@ -6015,13 +6024,13 @@
         <v>408573</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M21" s="7">
         <v>744</v>
@@ -6030,13 +6039,13 @@
         <v>799593</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6060,13 @@
         <v>254661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7">
         <v>307</v>
@@ -6066,13 +6075,13 @@
         <v>334338</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M22" s="7">
         <v>542</v>
@@ -6081,13 +6090,13 @@
         <v>588998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6215,13 @@
         <v>146173</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -6221,13 +6230,13 @@
         <v>74690</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M25" s="7">
         <v>213</v>
@@ -6236,13 +6245,13 @@
         <v>220862</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6266,13 @@
         <v>469462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H26" s="7">
         <v>487</v>
@@ -6272,13 +6281,13 @@
         <v>520980</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>952</v>
@@ -6287,13 +6296,13 @@
         <v>990441</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6317,13 @@
         <v>321933</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H27" s="7">
         <v>403</v>
@@ -6323,13 +6332,13 @@
         <v>448110</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M27" s="7">
         <v>726</v>
@@ -6338,13 +6347,13 @@
         <v>770042</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,13 +6472,13 @@
         <v>476535</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
@@ -6478,13 +6487,13 @@
         <v>197393</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>642</v>
@@ -6493,13 +6502,13 @@
         <v>673928</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6523,13 @@
         <v>1706415</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>1630</v>
@@ -6529,13 +6538,13 @@
         <v>1708794</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>3246</v>
@@ -6544,13 +6553,13 @@
         <v>3415209</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6574,13 @@
         <v>1211401</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>1516</v>
@@ -6580,13 +6589,13 @@
         <v>1638355</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>2681</v>
@@ -6595,13 +6604,13 @@
         <v>2849755</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,7 +6687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9E5FAA-2E92-44FF-966E-0E4A45C6C71D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC144C32-9221-4F4A-8151-BEF1509887C5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6695,7 +6704,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6808,7 +6817,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6823,7 +6832,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6838,7 +6847,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6862,13 @@
         <v>27500</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>38</v>
@@ -6868,7 +6877,7 @@
         <v>16575</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>243</v>
@@ -6961,7 +6970,7 @@
         <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -6970,13 +6979,13 @@
         <v>50640</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -6985,13 +6994,13 @@
         <v>85692</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,7 +7074,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7095,7 +7104,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7119,13 @@
         <v>139891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>194</v>
@@ -7125,13 +7134,13 @@
         <v>114204</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>337</v>
@@ -7140,13 +7149,13 @@
         <v>254095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7170,13 @@
         <v>246070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>433</v>
@@ -7176,13 +7185,13 @@
         <v>270572</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>720</v>
@@ -7191,13 +7200,13 @@
         <v>516642</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7221,13 @@
         <v>163862</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7">
         <v>371</v>
@@ -7227,13 +7236,13 @@
         <v>235191</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M12" s="7">
         <v>553</v>
@@ -7242,13 +7251,13 @@
         <v>399053</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>118</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,7 +7346,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7352,7 +7361,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7376,13 @@
         <v>244885</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H15" s="7">
         <v>269</v>
@@ -7382,13 +7391,13 @@
         <v>173828</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M15" s="7">
         <v>494</v>
@@ -7397,13 +7406,13 @@
         <v>418713</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7427,13 @@
         <v>500859</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>715</v>
@@ -7433,13 +7442,13 @@
         <v>518459</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>1159</v>
@@ -7448,13 +7457,13 @@
         <v>1019318</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,13 +7478,13 @@
         <v>293504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>533</v>
@@ -7484,13 +7493,13 @@
         <v>367793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>828</v>
@@ -7499,13 +7508,13 @@
         <v>661296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7633,13 @@
         <v>208052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -7639,13 +7648,13 @@
         <v>271064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>408</v>
@@ -7654,13 +7663,13 @@
         <v>479116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7684,13 @@
         <v>301319</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H21" s="7">
         <v>403</v>
@@ -7690,13 +7699,13 @@
         <v>287717</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M21" s="7">
         <v>683</v>
@@ -7705,13 +7714,13 @@
         <v>589036</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7735,13 @@
         <v>219401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>340</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>423</v>
@@ -7741,13 +7750,13 @@
         <v>315590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>632</v>
@@ -7756,13 +7765,13 @@
         <v>534990</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,7 +7860,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7866,7 +7875,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,13 +7890,13 @@
         <v>270247</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>243</v>
@@ -7896,13 +7905,13 @@
         <v>177324</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>508</v>
@@ -7911,13 +7920,13 @@
         <v>447571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,13 +7941,13 @@
         <v>480810</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>771</v>
@@ -7947,13 +7956,13 @@
         <v>555475</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>1277</v>
@@ -7962,13 +7971,13 @@
         <v>1036285</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7983,13 +7992,13 @@
         <v>214346</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H27" s="7">
         <v>548</v>
@@ -7998,13 +8007,13 @@
         <v>417633</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M27" s="7">
         <v>783</v>
@@ -8013,13 +8022,13 @@
         <v>631979</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,7 +8117,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8123,7 +8132,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,13 +8147,13 @@
         <v>890575</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H30" s="7">
         <v>965</v>
@@ -8153,13 +8162,13 @@
         <v>752995</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M30" s="7">
         <v>1818</v>
@@ -8168,13 +8177,13 @@
         <v>1643570</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,13 +8198,13 @@
         <v>1568488</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H31" s="7">
         <v>2430</v>
@@ -8204,28 +8213,28 @@
         <v>1695740</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>3990</v>
       </c>
       <c r="N31" s="7">
-        <v>3264228</v>
+        <v>3264229</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8249,13 @@
         <v>926165</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H32" s="7">
         <v>1972</v>
@@ -8255,13 +8264,13 @@
         <v>1386845</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M32" s="7">
         <v>2935</v>
@@ -8270,13 +8279,13 @@
         <v>2313010</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>172</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8318,7 +8327,7 @@
         <v>8743</v>
       </c>
       <c r="N33" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IPAQ_MET-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A9012C-9C87-48EB-9D65-0D29B55D8F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17C5DD5-B6D4-41A0-9704-36990412C166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{62DCA069-EF85-4136-BDF2-5DB13DE724A7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B8F0B30A-9C94-47EB-BA6D-8A35676B46EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="322">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No recogida en edición</t>
@@ -77,16 +77,13 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>Nivel Alto</t>
@@ -98,13 +95,10 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>Nivel Moderado</t>
@@ -113,27 +107,6 @@
     <t>Nivel bajo o inactivo</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -149,27 +122,15 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -203,28 +164,10 @@
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -242,934 +185,742 @@
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
   </si>
   <si>
     <t>50,46%</t>
   </si>
   <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1178,79 +929,82 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD5A035-34BC-4109-B3F1-93A3CEA1B035}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7F43CA-DBE4-4667-86B9-882506D66559}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1780,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D4" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1795,31 +1549,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I4" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N4" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1828,7 +1582,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1837,49 +1591,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1888,49 +1642,49 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1939,43 +1693,43 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D8" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -1999,10 +1753,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I8" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>13</v>
@@ -2014,10 +1768,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N8" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>13</v>
@@ -2031,52 +1785,52 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>13</v>
@@ -2085,7 +1839,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2094,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2109,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2124,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2145,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2160,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2175,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -2196,13 +1950,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2211,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2226,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,10 +1995,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D13" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -2256,10 +2010,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I13" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -2271,10 +2025,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N13" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -2288,52 +2042,52 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D14" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I14" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M14" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N14" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>13</v>
@@ -2342,7 +2096,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -2351,29 +2105,29 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
@@ -2381,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2402,29 +2156,29 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
@@ -2432,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2453,29 +2207,29 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
@@ -2483,13 +2237,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,10 +2252,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D18" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2513,10 +2267,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I18" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2528,10 +2282,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N18" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2545,52 +2299,52 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -2599,7 +2353,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2608,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2623,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2638,19 +2392,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2659,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2674,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2689,19 +2443,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2710,13 +2464,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2725,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2740,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,10 +2509,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D23" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2770,10 +2524,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I23" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -2785,10 +2539,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N23" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -2802,52 +2556,52 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I24" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -2856,7 +2610,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2865,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2880,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2895,19 +2649,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2916,13 +2670,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2931,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2946,19 +2700,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2967,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2982,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2997,13 +2751,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,10 +2766,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D28" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>13</v>
@@ -3027,10 +2781,10 @@
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I28" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>13</v>
@@ -3042,10 +2796,10 @@
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N28" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>13</v>
@@ -3058,273 +2812,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D29" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I29" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N29" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N33" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>52</v>
+      <c r="A29" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3337,8 +2833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F725323-694D-41A2-8ADD-9DA9957AC45A}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2066D250-E474-40EE-894D-C196BBF40CB6}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3354,7 +2850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3455,46 +2951,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D4" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I4" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N4" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3503,7 +2999,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3512,14 +3008,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -3527,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3542,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -3563,14 +3059,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -3578,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3593,19 +3089,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -3614,14 +3110,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
@@ -3629,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3644,13 +3140,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,10 +3155,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D8" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -3674,10 +3170,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I8" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>13</v>
@@ -3689,10 +3185,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N8" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>13</v>
@@ -3706,52 +3202,52 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>13</v>
@@ -3760,7 +3256,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3769,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3784,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3799,19 +3295,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3820,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3835,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3850,19 +3346,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -3871,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3886,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3901,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,10 +3412,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D13" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -3931,10 +3427,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I13" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -3946,10 +3442,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N13" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -3963,52 +3459,52 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D14" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I14" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M14" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N14" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>13</v>
@@ -4017,7 +3513,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -4026,14 +3522,14 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
@@ -4041,13 +3537,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4056,19 +3552,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -4077,14 +3573,14 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
@@ -4092,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4107,19 +3603,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4128,14 +3624,14 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
@@ -4143,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4158,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,10 +3669,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D18" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -4188,10 +3684,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I18" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -4203,10 +3699,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N18" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -4220,52 +3716,52 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4274,7 +3770,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4283,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4298,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4313,19 +3809,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -4334,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4349,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4364,19 +3860,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -4385,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4400,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4415,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,10 +3926,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D23" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -4445,10 +3941,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I23" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -4460,10 +3956,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N23" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -4477,52 +3973,52 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D24" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I24" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N24" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -4531,7 +4027,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -4540,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4555,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4570,19 +4066,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -4591,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4606,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4621,19 +4117,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -4642,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4657,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -4672,13 +4168,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,10 +4183,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D28" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>13</v>
@@ -4702,10 +4198,10 @@
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I28" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>13</v>
@@ -4717,10 +4213,10 @@
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N28" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>13</v>
@@ -4733,273 +4229,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D29" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I29" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N29" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N33" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>52</v>
+      <c r="A29" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5012,8 +4250,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7DF523-8353-41AB-8AE7-BD62F871C1CE}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEEFDC8-569D-4405-9910-B9DD5B1B2FA4}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5029,7 +4267,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5136,13 +4374,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5151,13 +4389,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5166,166 +4404,166 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D5" s="7">
-        <v>23866</v>
+        <v>93677</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>11579</v>
+        <v>33018</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="M5" s="7">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="N5" s="7">
-        <v>35445</v>
+        <v>126695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
+        <v>330</v>
+      </c>
+      <c r="D6" s="7">
+        <v>340957</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="7">
+        <v>314</v>
+      </c>
+      <c r="I6" s="7">
+        <v>310997</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="7">
-        <v>63938</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="7">
-        <v>60</v>
-      </c>
-      <c r="I6" s="7">
-        <v>59476</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="M6" s="7">
-        <v>122</v>
+        <v>644</v>
       </c>
       <c r="N6" s="7">
-        <v>123414</v>
+        <v>651955</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="D7" s="7">
-        <v>28741</v>
+        <v>240166</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="I7" s="7">
-        <v>42306</v>
+        <v>328824</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="M7" s="7">
-        <v>69</v>
+        <v>549</v>
       </c>
       <c r="N7" s="7">
-        <v>71047</v>
+        <v>568990</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,10 +4572,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D8" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -5349,10 +4587,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I8" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>13</v>
@@ -5364,10 +4602,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N8" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>13</v>
@@ -5381,7 +4619,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5393,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5408,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5423,166 +4661,166 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D10" s="7">
-        <v>69810</v>
+        <v>122813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>21439</v>
+        <v>47586</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="N10" s="7">
-        <v>91250</v>
+        <v>170399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>268</v>
+        <v>465</v>
       </c>
       <c r="D11" s="7">
-        <v>277019</v>
+        <v>504976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="I11" s="7">
-        <v>251522</v>
+        <v>468243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="M11" s="7">
-        <v>522</v>
+        <v>906</v>
       </c>
       <c r="N11" s="7">
-        <v>528540</v>
+        <v>973220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>205</v>
+        <v>375</v>
       </c>
       <c r="D12" s="7">
-        <v>211425</v>
+        <v>394641</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>489</v>
       </c>
       <c r="I12" s="7">
-        <v>286518</v>
+        <v>527084</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="M12" s="7">
-        <v>480</v>
+        <v>864</v>
       </c>
       <c r="N12" s="7">
-        <v>497943</v>
+        <v>921725</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,10 +4829,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D13" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -5606,10 +4844,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I13" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -5621,10 +4859,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N13" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -5638,7 +4876,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5650,14 +4888,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -5665,13 +4903,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5680,166 +4918,166 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
+        <v>105</v>
+      </c>
+      <c r="D15" s="7">
+        <v>113872</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="7">
+        <v>41</v>
+      </c>
+      <c r="I15" s="7">
+        <v>42100</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="7">
+        <v>146</v>
+      </c>
+      <c r="N15" s="7">
+        <v>155972</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="7">
-        <v>122813</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="7">
-        <v>47</v>
-      </c>
-      <c r="I15" s="7">
-        <v>47586</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M15" s="7">
-        <v>158</v>
-      </c>
-      <c r="N15" s="7">
-        <v>170399</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="P15" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
-        <v>465</v>
+        <v>356</v>
       </c>
       <c r="D16" s="7">
-        <v>504976</v>
+        <v>391020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="I16" s="7">
-        <v>468243</v>
+        <v>408573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
-        <v>906</v>
+        <v>744</v>
       </c>
       <c r="N16" s="7">
-        <v>973220</v>
+        <v>799593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
-        <v>375</v>
+        <v>235</v>
       </c>
       <c r="D17" s="7">
-        <v>394641</v>
+        <v>254661</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H17" s="7">
-        <v>489</v>
+        <v>307</v>
       </c>
       <c r="I17" s="7">
-        <v>527084</v>
+        <v>334338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7">
-        <v>864</v>
+        <v>542</v>
       </c>
       <c r="N17" s="7">
-        <v>921725</v>
+        <v>588998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,10 +5086,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D18" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -5863,10 +5101,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I18" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -5878,10 +5116,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N18" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -5895,7 +5133,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5907,13 +5145,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5922,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5937,166 +5175,166 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D20" s="7">
-        <v>113872</v>
+        <v>146173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I20" s="7">
-        <v>42100</v>
+        <v>74690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="N20" s="7">
-        <v>155972</v>
+        <v>220862</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>356</v>
+        <v>465</v>
       </c>
       <c r="D21" s="7">
-        <v>391020</v>
+        <v>469462</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
-        <v>388</v>
+        <v>487</v>
       </c>
       <c r="I21" s="7">
-        <v>408573</v>
+        <v>520980</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
-        <v>744</v>
+        <v>952</v>
       </c>
       <c r="N21" s="7">
-        <v>799593</v>
+        <v>990441</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="D22" s="7">
-        <v>254661</v>
+        <v>321933</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
-        <v>307</v>
+        <v>403</v>
       </c>
       <c r="I22" s="7">
-        <v>334338</v>
+        <v>448110</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
-        <v>542</v>
+        <v>726</v>
       </c>
       <c r="N22" s="7">
-        <v>588998</v>
+        <v>770042</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D23" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -6120,10 +5358,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I23" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -6135,10 +5373,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N23" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -6152,7 +5390,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6164,13 +5402,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6179,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6194,166 +5432,166 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="D25" s="7">
-        <v>146173</v>
+        <v>476535</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="I25" s="7">
-        <v>74690</v>
+        <v>197393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
-        <v>213</v>
+        <v>642</v>
       </c>
       <c r="N25" s="7">
-        <v>220862</v>
+        <v>673928</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>465</v>
+        <v>1616</v>
       </c>
       <c r="D26" s="7">
-        <v>469462</v>
+        <v>1706415</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
-        <v>487</v>
+        <v>1630</v>
       </c>
       <c r="I26" s="7">
-        <v>520980</v>
+        <v>1708794</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
-        <v>952</v>
+        <v>3246</v>
       </c>
       <c r="N26" s="7">
-        <v>990441</v>
+        <v>3415209</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
-        <v>323</v>
+        <v>1165</v>
       </c>
       <c r="D27" s="7">
-        <v>321933</v>
+        <v>1211401</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="H27" s="7">
-        <v>403</v>
+        <v>1516</v>
       </c>
       <c r="I27" s="7">
-        <v>448110</v>
+        <v>1638355</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="M27" s="7">
-        <v>726</v>
+        <v>2681</v>
       </c>
       <c r="N27" s="7">
-        <v>770042</v>
+        <v>2849755</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,10 +5600,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D28" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>13</v>
@@ -6377,10 +5615,10 @@
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I28" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>13</v>
@@ -6392,10 +5630,10 @@
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N28" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>13</v>
@@ -6408,273 +5646,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>450</v>
-      </c>
-      <c r="D30" s="7">
-        <v>476535</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="7">
-        <v>192</v>
-      </c>
-      <c r="I30" s="7">
-        <v>197393</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M30" s="7">
-        <v>642</v>
-      </c>
-      <c r="N30" s="7">
-        <v>673928</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1616</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1706415</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1630</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1708794</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3246</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3415209</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1165</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1211401</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1516</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1638355</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2681</v>
-      </c>
-      <c r="N32" s="7">
-        <v>2849755</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N33" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>52</v>
+      <c r="A29" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6687,8 +5667,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC144C32-9221-4F4A-8151-BEF1509887C5}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD8C10C-A669-4BF3-9C24-B781B6E0F4BD}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6704,7 +5684,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6811,13 +5791,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6826,13 +5806,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6841,166 +5821,166 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="D5" s="7">
-        <v>27500</v>
+        <v>162167</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="I5" s="7">
-        <v>16575</v>
+        <v>122182</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="M5" s="7">
-        <v>71</v>
+        <v>408</v>
       </c>
       <c r="N5" s="7">
-        <v>44075</v>
+        <v>284349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>39430</v>
+        <v>278309</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="H6" s="7">
-        <v>108</v>
+        <v>541</v>
       </c>
       <c r="I6" s="7">
-        <v>63518</v>
+        <v>312547</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
-        <v>151</v>
+        <v>871</v>
       </c>
       <c r="N6" s="7">
-        <v>102949</v>
+        <v>590856</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="D7" s="7">
-        <v>35052</v>
+        <v>194966</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
-        <v>97</v>
+        <v>468</v>
       </c>
       <c r="I7" s="7">
-        <v>50640</v>
+        <v>290602</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
-        <v>139</v>
+        <v>692</v>
       </c>
       <c r="N7" s="7">
-        <v>85692</v>
+        <v>485568</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,10 +5989,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D8" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -7024,10 +6004,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I8" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>13</v>
@@ -7039,10 +6019,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N8" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>13</v>
@@ -7056,7 +6036,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -7068,13 +6048,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7083,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7098,166 +6078,166 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="D10" s="7">
-        <v>139891</v>
+        <v>233101</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="7">
         <v>269</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H10" s="7">
-        <v>194</v>
-      </c>
       <c r="I10" s="7">
-        <v>114204</v>
+        <v>159511</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
-        <v>337</v>
+        <v>494</v>
       </c>
       <c r="N10" s="7">
-        <v>254095</v>
+        <v>392613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>287</v>
+        <v>444</v>
       </c>
       <c r="D11" s="7">
-        <v>246070</v>
+        <v>680768</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
-        <v>433</v>
+        <v>715</v>
       </c>
       <c r="I11" s="7">
-        <v>270572</v>
+        <v>466201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
-        <v>720</v>
+        <v>1159</v>
       </c>
       <c r="N11" s="7">
-        <v>516642</v>
+        <v>1146969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="D12" s="7">
-        <v>163862</v>
+        <v>278995</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="H12" s="7">
-        <v>371</v>
+        <v>533</v>
       </c>
       <c r="I12" s="7">
-        <v>235191</v>
+        <v>332938</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="M12" s="7">
-        <v>553</v>
+        <v>828</v>
       </c>
       <c r="N12" s="7">
-        <v>399053</v>
+        <v>611934</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,10 +6246,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D13" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -7281,10 +6261,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I13" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -7296,10 +6276,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N13" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -7313,7 +6293,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7325,14 +6305,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -7340,13 +6320,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7355,166 +6335,166 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="D15" s="7">
-        <v>244885</v>
+        <v>203763</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="H15" s="7">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="I15" s="7">
-        <v>173828</v>
+        <v>351928</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="M15" s="7">
-        <v>494</v>
+        <v>408</v>
       </c>
       <c r="N15" s="7">
-        <v>418713</v>
+        <v>555690</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
-        <v>444</v>
+        <v>280</v>
       </c>
       <c r="D16" s="7">
-        <v>500859</v>
+        <v>290711</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
-        <v>715</v>
+        <v>403</v>
       </c>
       <c r="I16" s="7">
-        <v>518459</v>
+        <v>265650</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
-        <v>1159</v>
+        <v>683</v>
       </c>
       <c r="N16" s="7">
-        <v>1019318</v>
+        <v>556361</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="D17" s="7">
-        <v>293504</v>
+        <v>210206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
-        <v>533</v>
+        <v>423</v>
       </c>
       <c r="I17" s="7">
-        <v>367793</v>
+        <v>315788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
-        <v>828</v>
+        <v>632</v>
       </c>
       <c r="N17" s="7">
-        <v>661296</v>
+        <v>525995</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,10 +6503,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D18" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -7538,10 +6518,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I18" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -7553,10 +6533,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N18" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -7570,7 +6550,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7582,13 +6562,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7597,13 +6577,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7612,166 +6592,166 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="D20" s="7">
-        <v>208052</v>
+        <v>263875</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="I20" s="7">
-        <v>271064</v>
+        <v>162292</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
-        <v>408</v>
+        <v>508</v>
       </c>
       <c r="N20" s="7">
-        <v>479116</v>
+        <v>426167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>506</v>
+      </c>
+      <c r="D21" s="7">
+        <v>460045</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D21" s="7">
-        <v>301319</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="H21" s="7">
-        <v>403</v>
+        <v>771</v>
       </c>
       <c r="I21" s="7">
-        <v>287717</v>
+        <v>504798</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>334</v>
+        <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>336</v>
+        <v>167</v>
       </c>
       <c r="M21" s="7">
-        <v>683</v>
+        <v>1277</v>
       </c>
       <c r="N21" s="7">
-        <v>589036</v>
+        <v>964843</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="D22" s="7">
-        <v>219401</v>
+        <v>202911</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
-        <v>423</v>
+        <v>548</v>
       </c>
       <c r="I22" s="7">
-        <v>315590</v>
+        <v>427842</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
-        <v>632</v>
+        <v>783</v>
       </c>
       <c r="N22" s="7">
-        <v>534990</v>
+        <v>630753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,10 +6760,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D23" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -7795,10 +6775,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I23" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -7810,10 +6790,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N23" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -7827,7 +6807,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7839,13 +6819,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7854,13 +6834,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7869,166 +6849,166 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
-        <v>265</v>
+        <v>853</v>
       </c>
       <c r="D25" s="7">
-        <v>270247</v>
+        <v>862906</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
-        <v>243</v>
+        <v>965</v>
       </c>
       <c r="I25" s="7">
-        <v>177324</v>
+        <v>795913</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>198</v>
       </c>
       <c r="M25" s="7">
-        <v>508</v>
+        <v>1818</v>
       </c>
       <c r="N25" s="7">
-        <v>447571</v>
+        <v>1658818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>506</v>
+        <v>1560</v>
       </c>
       <c r="D26" s="7">
-        <v>480810</v>
+        <v>1709833</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
-        <v>771</v>
+        <v>2430</v>
       </c>
       <c r="I26" s="7">
-        <v>555475</v>
+        <v>1549197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
-        <v>1277</v>
+        <v>3990</v>
       </c>
       <c r="N26" s="7">
-        <v>1036285</v>
+        <v>3259029</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
-        <v>235</v>
+        <v>963</v>
       </c>
       <c r="D27" s="7">
-        <v>214346</v>
+        <v>887079</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="H27" s="7">
-        <v>548</v>
+        <v>1972</v>
       </c>
       <c r="I27" s="7">
-        <v>417633</v>
+        <v>1367171</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="M27" s="7">
-        <v>783</v>
+        <v>2935</v>
       </c>
       <c r="N27" s="7">
-        <v>631979</v>
+        <v>2254249</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,10 +7017,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D28" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>13</v>
@@ -8052,10 +7032,10 @@
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I28" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>13</v>
@@ -8067,10 +7047,10 @@
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>13</v>
@@ -8083,273 +7063,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>853</v>
-      </c>
-      <c r="D30" s="7">
-        <v>890575</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H30" s="7">
-        <v>965</v>
-      </c>
-      <c r="I30" s="7">
-        <v>752995</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1818</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1643570</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1560</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1568488</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H31" s="7">
-        <v>2430</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1695740</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3990</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3264229</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>963</v>
-      </c>
-      <c r="D32" s="7">
-        <v>926165</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1972</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1386845</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2935</v>
-      </c>
-      <c r="N32" s="7">
-        <v>2313010</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>52</v>
+      <c r="A29" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
